--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>0.1333333333333329</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.8200000000000003</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -10553,7 +10555,9 @@
       <c r="C116" t="n">
         <v>1.33666666666667</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.2551724137931046</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10564,7 +10568,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15679,7 +15683,9 @@
       <c r="C116" t="n">
         <v>1.179999999999996</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.2099999999999973</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15690,7 +15696,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -20805,7 +20811,9 @@
       <c r="C116" t="n">
         <v>1.469666666666665</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.1270000000000007</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20816,7 +20824,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25837,7 +25845,9 @@
       <c r="C116" t="n">
         <v>1.156666666666672</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.173333333333332</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25848,7 +25858,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>
@@ -30963,7 +30973,9 @@
       <c r="C116" t="n">
         <v>1.49433333333333</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.4843333333333355</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30974,7 +30986,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -36089,7 +36101,9 @@
       <c r="C116" t="n">
         <v>2.132666666666667</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.499333333333329</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36100,7 +36114,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -41215,7 +41229,9 @@
       <c r="C116" t="n">
         <v>1.271904761904762</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.02597701149425369</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41226,7 +41242,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -46341,7 +46357,9 @@
       <c r="C116" t="n">
         <v>1.27</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.03</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46352,7 +46370,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.8200000000000003</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.653333333333334</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -10558,7 +10560,9 @@
       <c r="D116" t="n">
         <v>-0.2551724137931046</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.976666666666668</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10568,7 +10572,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -15686,7 +15690,9 @@
       <c r="D116" t="n">
         <v>0.2099999999999973</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7033333333333331</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20814,7 +20820,9 @@
       <c r="D116" t="n">
         <v>-0.1270000000000007</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.192999999999998</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20824,7 +20832,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -25848,7 +25856,9 @@
       <c r="D116" t="n">
         <v>-0.173333333333332</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.6400000000000006</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25858,7 +25868,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -30976,7 +30986,9 @@
       <c r="D116" t="n">
         <v>0.4843333333333355</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>2.191000000000001</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30986,7 +30998,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -36104,7 +36116,9 @@
       <c r="D116" t="n">
         <v>0.499333333333329</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.306000000000003</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36114,7 +36128,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -41232,7 +41246,9 @@
       <c r="D116" t="n">
         <v>-0.02597701149425369</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.380476190476191</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41242,7 +41258,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -46360,7 +46376,9 @@
       <c r="D116" t="n">
         <v>-0.03</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.38</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46370,7 +46388,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>1.653333333333334</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.946666666666667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.0166666666666675</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -10563,8 +10567,12 @@
       <c r="E116" t="n">
         <v>1.976666666666668</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>3.093333333333335</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9166666666666665</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10572,7 +10580,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.97</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -15693,8 +15701,12 @@
       <c r="E116" t="n">
         <v>0.7033333333333331</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.056666666666667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.7466666666666653</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15702,7 +15714,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -20823,8 +20835,12 @@
       <c r="E116" t="n">
         <v>1.192999999999998</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.872999999999998</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.564</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20832,7 +20848,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.97</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -25859,8 +25875,12 @@
       <c r="E116" t="n">
         <v>0.6400000000000006</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.6966666666666681</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -25868,7 +25888,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -30989,8 +31009,12 @@
       <c r="E116" t="n">
         <v>2.191000000000001</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.977666666666666</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.251</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -30998,7 +31022,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.43</v>
+        <v>1.99</v>
       </c>
     </row>
   </sheetData>
@@ -36119,8 +36143,12 @@
       <c r="E116" t="n">
         <v>1.306000000000003</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.046</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36128,7 +36156,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>
@@ -41249,8 +41277,12 @@
       <c r="E116" t="n">
         <v>1.380476190476191</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.468571428571429</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.314904761904762</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41258,7 +41290,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -46379,8 +46411,12 @@
       <c r="E116" t="n">
         <v>1.38</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.31</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46388,7 +46424,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>-0.0166666666666675</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.446666666666664</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -10573,14 +10575,16 @@
       <c r="G116" t="n">
         <v>0.9166666666666665</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.05333333333333279</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -15707,14 +15711,16 @@
       <c r="G116" t="n">
         <v>0.7466666666666653</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>-0.1633333333333313</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -20841,14 +20847,16 @@
       <c r="G116" t="n">
         <v>1.564</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.543999999999999</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -25881,14 +25889,16 @@
       <c r="G116" t="n">
         <v>0.6966666666666681</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.373333333333333</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -31015,14 +31025,16 @@
       <c r="G116" t="n">
         <v>3.251</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.107666666666667</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>
@@ -36149,14 +36161,16 @@
       <c r="G116" t="n">
         <v>2.046</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>2.376</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
@@ -41283,14 +41297,16 @@
       <c r="G116" t="n">
         <v>1.314904761904762</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.105380952380952</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -46417,14 +46433,16 @@
       <c r="G116" t="n">
         <v>1.31</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.11</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>1.446666666666664</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.433333333333335</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10578,13 +10580,15 @@
       <c r="H116" t="n">
         <v>0.05333333333333279</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.31</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15714,13 +15718,15 @@
       <c r="H116" t="n">
         <v>-0.1633333333333313</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8966666666666674</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20850,13 +20856,15 @@
       <c r="H116" t="n">
         <v>1.543999999999999</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.042666666666666</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -25892,13 +25900,15 @@
       <c r="H116" t="n">
         <v>1.373333333333333</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.223333333333334</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -31028,13 +31038,15 @@
       <c r="H116" t="n">
         <v>1.107666666666667</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.5923333333333334</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -36164,13 +36176,15 @@
       <c r="H116" t="n">
         <v>2.376</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.007333333333332526</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -41300,13 +41314,15 @@
       <c r="H116" t="n">
         <v>1.105380952380952</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.9293809523809526</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -46436,13 +46452,15 @@
       <c r="H116" t="n">
         <v>1.11</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.93</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-1.433333333333335</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.9506666666666632</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -10583,12 +10585,14 @@
       <c r="I116" t="n">
         <v>-1.31</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.280000000000001</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -15721,12 +15725,14 @@
       <c r="I116" t="n">
         <v>-0.8966666666666674</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.182666666666668</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -20859,12 +20865,14 @@
       <c r="I116" t="n">
         <v>-1.042666666666666</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.474</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -25903,7 +25911,9 @@
       <c r="I116" t="n">
         <v>-1.223333333333334</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.8999999999999986</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -31041,12 +31051,14 @@
       <c r="I116" t="n">
         <v>-0.5923333333333334</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.514333333333334</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
@@ -36179,12 +36191,14 @@
       <c r="I116" t="n">
         <v>-0.007333333333332526</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.091333333333333</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -41317,12 +41331,14 @@
       <c r="I116" t="n">
         <v>-0.9293809523809526</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.341857142857143</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -46455,12 +46471,14 @@
       <c r="I116" t="n">
         <v>-0.93</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.34</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>0.9506666666666632</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.6253333333333355</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10588,11 +10590,13 @@
       <c r="J116" t="n">
         <v>2.280000000000001</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.09666666666666668</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -15728,11 +15732,13 @@
       <c r="J116" t="n">
         <v>1.182666666666668</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.08400000000000141</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20868,11 +20874,13 @@
       <c r="J116" t="n">
         <v>1.474</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.1506666666666661</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -25914,11 +25922,13 @@
       <c r="J116" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.9299999999999997</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -31054,11 +31064,13 @@
       <c r="J116" t="n">
         <v>1.514333333333334</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.1209999999999996</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -36194,11 +36206,13 @@
       <c r="J116" t="n">
         <v>1.091333333333333</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.09799999999999809</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -41334,11 +41348,13 @@
       <c r="J116" t="n">
         <v>1.341857142857143</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.0165238095238098</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -46474,11 +46490,13 @@
       <c r="J116" t="n">
         <v>1.34</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.02</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.6253333333333355</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4049999999999994</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -10593,7 +10595,9 @@
       <c r="K116" t="n">
         <v>-0.09666666666666668</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.8199999999999994</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
         <v>0.88</v>
@@ -15735,10 +15739,12 @@
       <c r="K116" t="n">
         <v>-0.08400000000000141</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.6460000000000008</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -20877,10 +20883,12 @@
       <c r="K116" t="n">
         <v>0.1506666666666661</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.3940000000000001</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -25925,10 +25933,12 @@
       <c r="K116" t="n">
         <v>-0.9299999999999997</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.2866666666666671</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -31067,10 +31077,12 @@
       <c r="K116" t="n">
         <v>0.1209999999999996</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4143333333333352</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -36209,10 +36221,12 @@
       <c r="K116" t="n">
         <v>0.09799999999999809</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.3880000000000017</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -41351,10 +41365,12 @@
       <c r="K116" t="n">
         <v>-0.0165238095238098</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4791428571428576</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -46493,10 +46509,12 @@
       <c r="K116" t="n">
         <v>-0.02</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.48</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.4049999999999994</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.311666666666664</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.54</v>
-      </c>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10598,10 +10618,30 @@
       <c r="L116" t="n">
         <v>0.8199999999999994</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.82</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.88</v>
-      </c>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10614,7 +10654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15742,10 +15782,30 @@
       <c r="L116" t="n">
         <v>0.6460000000000008</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.7826666666666693</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.57</v>
-      </c>
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15758,7 +15818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20886,10 +20946,30 @@
       <c r="L116" t="n">
         <v>0.3940000000000001</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.928999999999998</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.99</v>
-      </c>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20902,7 +20982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25936,10 +26016,30 @@
       <c r="L116" t="n">
         <v>0.2866666666666671</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.319999999999997</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25952,7 +26052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31080,10 +31180,30 @@
       <c r="L116" t="n">
         <v>0.4143333333333352</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.444333333333333</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.32</v>
-      </c>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31096,7 +31216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36224,10 +36344,30 @@
       <c r="L116" t="n">
         <v>0.3880000000000017</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.7479999999999976</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.25</v>
-      </c>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36240,7 +36380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41368,10 +41508,30 @@
       <c r="L116" t="n">
         <v>0.4791428571428576</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.336523809523808</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.89</v>
-      </c>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41384,7 +41544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46512,10 +46672,30 @@
       <c r="L116" t="n">
         <v>0.48</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.34</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.89</v>
-      </c>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.393333333333334</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10629,7 +10633,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.323333333333334</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10641,7 +10647,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15793,7 +15801,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.243333333333331</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15805,7 +15815,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20957,7 +20969,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.9596666666666671</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20969,7 +20983,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26027,7 +26043,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.3966666666666683</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26039,7 +26057,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31191,7 +31211,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.257666666666665</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31203,7 +31225,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36355,7 +36379,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.4426666666666694</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36367,7 +36393,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41519,7 +41547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.002380952380953</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41531,7 +41561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46683,7 +46715,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46695,7 +46729,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.393333333333334</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.5666666666666664</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.39</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -10636,7 +10638,9 @@
       <c r="B117" t="n">
         <v>1.323333333333334</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.4633333333333312</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10648,7 +10652,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.32</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -15804,7 +15808,9 @@
       <c r="B117" t="n">
         <v>1.243333333333331</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.2799999999999958</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15816,7 +15822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.24</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -20972,7 +20978,9 @@
       <c r="B117" t="n">
         <v>0.9596666666666671</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.2303333333333342</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20984,7 +20992,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26046,7 +26054,9 @@
       <c r="B117" t="n">
         <v>0.3966666666666683</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-1.743333333333329</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26058,7 +26068,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -31214,7 +31224,9 @@
       <c r="B117" t="n">
         <v>1.257666666666665</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.50566666666667</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31226,7 +31238,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.26</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -36382,7 +36394,9 @@
       <c r="B117" t="n">
         <v>0.4426666666666694</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.1326666666666672</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36394,7 +36408,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -41550,7 +41564,9 @@
       <c r="B117" t="n">
         <v>1.002380952380953</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.4423809523809525</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41562,7 +41578,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46718,7 +46734,9 @@
       <c r="B117" t="n">
         <v>1</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.44</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46730,7 +46748,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>-0.5666666666666664</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.41</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -10641,7 +10643,9 @@
       <c r="C117" t="n">
         <v>-0.4633333333333312</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.555172413793104</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10652,7 +10656,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -15811,7 +15815,9 @@
       <c r="C117" t="n">
         <v>0.2799999999999958</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.7900000000000027</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15822,7 +15828,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -20981,7 +20987,9 @@
       <c r="C117" t="n">
         <v>-0.2303333333333342</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.027000000000001</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20992,7 +21000,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -26057,7 +26065,9 @@
       <c r="C117" t="n">
         <v>-1.743333333333329</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.373333333333333</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26068,7 +26078,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.67</v>
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -31227,7 +31237,9 @@
       <c r="C117" t="n">
         <v>-0.50566666666667</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.215666666666666</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31238,7 +31250,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -36397,7 +36409,9 @@
       <c r="C117" t="n">
         <v>0.1326666666666672</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.000666666666671</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36408,7 +36422,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -41567,7 +41581,9 @@
       <c r="C117" t="n">
         <v>-0.4423809523809525</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.125977011494254</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41578,7 +41594,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -46737,7 +46753,9 @@
       <c r="C117" t="n">
         <v>-0.44</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.13</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46748,7 +46766,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -562,7 +562,7 @@
         <v>-1.164666666666665</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6850000000000005</v>
+        <v>-0.6816666666666666</v>
       </c>
       <c r="M3" t="n">
         <v>-2.278333333333336</v>
@@ -606,7 +606,7 @@
         <v>-2.374666666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.685</v>
+        <v>-2.681666666666667</v>
       </c>
       <c r="M4" t="n">
         <v>-4.278333333333336</v>
@@ -650,7 +650,7 @@
         <v>-2.374666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="M5" t="n">
         <v>-2.678333333333336</v>
@@ -694,7 +694,7 @@
         <v>-1.374666666666666</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="M6" t="n">
         <v>-3.878333333333336</v>
@@ -738,7 +738,7 @@
         <v>-2.874666666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="M7" t="n">
         <v>-3.978333333333335</v>
@@ -782,7 +782,7 @@
         <v>-0.5746666666666655</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="M8" t="n">
         <v>-2.378333333333336</v>
@@ -826,7 +826,7 @@
         <v>-0.8746666666666663</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.4850000000000012</v>
+        <v>-0.4816666666666674</v>
       </c>
       <c r="M9" t="n">
         <v>-0.5783333333333367</v>
@@ -870,7 +870,7 @@
         <v>-0.8746666666666663</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.8849999999999998</v>
+        <v>-0.8816666666666659</v>
       </c>
       <c r="M10" t="n">
         <v>-2.478333333333335</v>
@@ -914,7 +914,7 @@
         <v>-1.664666666666665</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.285</v>
+        <v>-2.281666666666666</v>
       </c>
       <c r="M11" t="n">
         <v>-3.978333333333335</v>
@@ -958,7 +958,7 @@
         <v>-3.074666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.685</v>
+        <v>-4.681666666666667</v>
       </c>
       <c r="M12" t="n">
         <v>-3.678333333333336</v>
@@ -1002,7 +1002,7 @@
         <v>-1.374666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.085000000000001</v>
+        <v>-2.081666666666667</v>
       </c>
       <c r="M13" t="n">
         <v>-2.178333333333336</v>
@@ -1046,7 +1046,7 @@
         <v>-0.6646666666666654</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.785</v>
+        <v>-1.781666666666666</v>
       </c>
       <c r="M14" t="n">
         <v>-1.778333333333336</v>
@@ -1090,7 +1090,7 @@
         <v>-0.3746666666666663</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="M15" t="n">
         <v>-1.578333333333337</v>
@@ -1134,7 +1134,7 @@
         <v>-1.264666666666665</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="M16" t="n">
         <v>-0.4783333333333353</v>
@@ -1178,7 +1178,7 @@
         <v>-1.074666666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.7850000000000001</v>
+        <v>-0.7816666666666663</v>
       </c>
       <c r="M17" t="n">
         <v>-2.578333333333337</v>
@@ -1222,7 +1222,7 @@
         <v>-1.574666666666666</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.885</v>
+        <v>-2.881666666666666</v>
       </c>
       <c r="M18" t="n">
         <v>-2.278333333333336</v>
@@ -1266,7 +1266,7 @@
         <v>-0.6646666666666654</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="M19" t="n">
         <v>-2.278333333333336</v>
@@ -1310,7 +1310,7 @@
         <v>-2.074666666666666</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.385</v>
+        <v>-1.381666666666666</v>
       </c>
       <c r="M20" t="n">
         <v>-2.878333333333336</v>
@@ -1354,7 +1354,7 @@
         <v>-1.574666666666666</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.08500000000000085</v>
+        <v>-0.081666666666667</v>
       </c>
       <c r="M21" t="n">
         <v>-1.978333333333335</v>
@@ -1398,7 +1398,7 @@
         <v>-1.474666666666666</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="M22" t="n">
         <v>-1.578333333333337</v>
@@ -1442,7 +1442,7 @@
         <v>-2.764666666666665</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="M23" t="n">
         <v>-2.378333333333336</v>
@@ -1486,7 +1486,7 @@
         <v>-2.074666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1150000000000002</v>
+        <v>0.1183333333333341</v>
       </c>
       <c r="M24" t="n">
         <v>-1.878333333333336</v>
@@ -1530,7 +1530,7 @@
         <v>-0.2646666666666651</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.685</v>
+        <v>-1.681666666666667</v>
       </c>
       <c r="M25" t="n">
         <v>-1.978333333333335</v>
@@ -1574,7 +1574,7 @@
         <v>-1.874666666666666</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="M26" t="n">
         <v>-1.778333333333336</v>
@@ -1618,7 +1618,7 @@
         <v>-1.574666666666666</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1150000000000002</v>
+        <v>0.1183333333333341</v>
       </c>
       <c r="M27" t="n">
         <v>0.9216666666666633</v>
@@ -1662,7 +1662,7 @@
         <v>-0.9746666666666659</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.785</v>
+        <v>-2.781666666666666</v>
       </c>
       <c r="M28" t="n">
         <v>-0.5783333333333367</v>
@@ -1706,7 +1706,7 @@
         <v>-0.3746666666666663</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.285</v>
+        <v>-1.281666666666666</v>
       </c>
       <c r="M29" t="n">
         <v>-2.278333333333336</v>
@@ -1750,7 +1750,7 @@
         <v>-2.164666666666665</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.9850000000000012</v>
+        <v>-0.9816666666666674</v>
       </c>
       <c r="M30" t="n">
         <v>-0.278333333333336</v>
@@ -1794,7 +1794,7 @@
         <v>-1.264666666666665</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3149999999999995</v>
+        <v>0.3183333333333334</v>
       </c>
       <c r="M31" t="n">
         <v>-2.178333333333336</v>
@@ -1838,7 +1838,7 @@
         <v>-2.264666666666665</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="M32" t="n">
         <v>-1.978333333333335</v>
@@ -1882,7 +1882,7 @@
         <v>-1.874666666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.685</v>
+        <v>-2.681666666666667</v>
       </c>
       <c r="M33" t="n">
         <v>-1.178333333333336</v>
@@ -1926,7 +1926,7 @@
         <v>-2.264666666666665</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.085000000000001</v>
+        <v>-2.081666666666667</v>
       </c>
       <c r="M34" t="n">
         <v>-1.678333333333336</v>
@@ -1970,7 +1970,7 @@
         <v>-0.7646666666666651</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="M35" t="n">
         <v>-2.278333333333336</v>
@@ -2014,7 +2014,7 @@
         <v>-2.164666666666665</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.8849999999999998</v>
+        <v>-0.8816666666666659</v>
       </c>
       <c r="M36" t="n">
         <v>-0.8783333333333356</v>
@@ -2058,7 +2058,7 @@
         <v>-1.164666666666665</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.885</v>
+        <v>-1.881666666666666</v>
       </c>
       <c r="M37" t="n">
         <v>-3.278333333333336</v>
@@ -2102,7 +2102,7 @@
         <v>-2.764666666666665</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.585000000000001</v>
+        <v>-1.581666666666667</v>
       </c>
       <c r="M38" t="n">
         <v>-3.878333333333336</v>
@@ -2146,7 +2146,7 @@
         <v>-1.874666666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.585000000000001</v>
+        <v>-3.581666666666667</v>
       </c>
       <c r="M39" t="n">
         <v>-3.078333333333337</v>
@@ -2190,7 +2190,7 @@
         <v>-1.474666666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.885</v>
+        <v>-1.881666666666666</v>
       </c>
       <c r="M40" t="n">
         <v>-1.078333333333337</v>
@@ -2234,7 +2234,7 @@
         <v>-1.074666666666666</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.485000000000001</v>
+        <v>-1.481666666666667</v>
       </c>
       <c r="M41" t="n">
         <v>-2.278333333333336</v>
@@ -2278,7 +2278,7 @@
         <v>-0.3746666666666663</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.285</v>
+        <v>-1.281666666666666</v>
       </c>
       <c r="M42" t="n">
         <v>-2.778333333333336</v>
@@ -2322,7 +2322,7 @@
         <v>-0.5746666666666655</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.2850000000000001</v>
+        <v>-0.2816666666666663</v>
       </c>
       <c r="M43" t="n">
         <v>-1.178333333333336</v>
@@ -2366,7 +2366,7 @@
         <v>-1.004666666666665</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="M44" t="n">
         <v>-2.718333333333335</v>
@@ -2410,7 +2410,7 @@
         <v>-0.6046666666666649</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.125</v>
+        <v>-1.121666666666666</v>
       </c>
       <c r="M45" t="n">
         <v>-1.518333333333336</v>
@@ -2454,7 +2454,7 @@
         <v>-1.104666666666665</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.125</v>
+        <v>-0.1216666666666661</v>
       </c>
       <c r="M46" t="n">
         <v>-0.5183333333333362</v>
@@ -2498,7 +2498,7 @@
         <v>-2.104666666666665</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2750000000000004</v>
+        <v>0.2783333333333342</v>
       </c>
       <c r="M47" t="n">
         <v>-0.5183333333333362</v>
@@ -2542,7 +2542,7 @@
         <v>-0.004666666666665265</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.325000000000001</v>
+        <v>-1.321666666666667</v>
       </c>
       <c r="M48" t="n">
         <v>-0.6183333333333358</v>
@@ -2586,7 +2586,7 @@
         <v>-0.3146666666666658</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="M49" t="n">
         <v>-2.018333333333336</v>
@@ -2630,7 +2630,7 @@
         <v>-2.004666666666665</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="M50" t="n">
         <v>-3.018333333333336</v>
@@ -2674,7 +2674,7 @@
         <v>0.7853333333333339</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.4250000000000007</v>
+        <v>-0.4216666666666669</v>
       </c>
       <c r="M51" t="n">
         <v>-0.0183333333333362</v>
@@ -2718,7 +2718,7 @@
         <v>-1.214666666666666</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="M52" t="n">
         <v>-0.2183333333333355</v>
@@ -2762,7 +2762,7 @@
         <v>-0.5046666666666653</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.025</v>
+        <v>-1.021666666666667</v>
       </c>
       <c r="M53" t="n">
         <v>-2.918333333333337</v>
@@ -2806,7 +2806,7 @@
         <v>-0.004666666666665265</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="M54" t="n">
         <v>-0.1183333333333358</v>
@@ -2850,7 +2850,7 @@
         <v>0.5953333333333344</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.625</v>
+        <v>-0.6216666666666661</v>
       </c>
       <c r="M55" t="n">
         <v>-1.318333333333335</v>
@@ -2894,7 +2894,7 @@
         <v>-0.9046666666666656</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.825000000000001</v>
+        <v>-1.821666666666667</v>
       </c>
       <c r="M56" t="n">
         <v>-2.118333333333336</v>
@@ -2938,7 +2938,7 @@
         <v>-1.314666666666666</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.425000000000001</v>
+        <v>-1.421666666666667</v>
       </c>
       <c r="M57" t="n">
         <v>-1.018333333333336</v>
@@ -2982,7 +2982,7 @@
         <v>-1.904666666666666</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.525</v>
+        <v>-1.521666666666667</v>
       </c>
       <c r="M58" t="n">
         <v>-1.818333333333335</v>
@@ -3026,7 +3026,7 @@
         <v>-2.104666666666665</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.125</v>
+        <v>-1.121666666666666</v>
       </c>
       <c r="M59" t="n">
         <v>-2.218333333333335</v>
@@ -3070,7 +3070,7 @@
         <v>0.1853333333333342</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.02500000000000036</v>
+        <v>-0.0216666666666665</v>
       </c>
       <c r="M60" t="n">
         <v>-0.6183333333333358</v>
@@ -3114,7 +3114,7 @@
         <v>-1.604666666666665</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.025</v>
+        <v>-2.021666666666667</v>
       </c>
       <c r="M61" t="n">
         <v>-1.918333333333337</v>
@@ -3158,7 +3158,7 @@
         <v>-1.504666666666665</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.3250000000000011</v>
+        <v>-0.3216666666666672</v>
       </c>
       <c r="M62" t="n">
         <v>0.5816666666666634</v>
@@ -3202,7 +3202,7 @@
         <v>0.2853333333333339</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.5250000000000004</v>
+        <v>-0.5216666666666665</v>
       </c>
       <c r="M63" t="n">
         <v>-0.2183333333333355</v>
@@ -3246,7 +3246,7 @@
         <v>-0.5046666666666653</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.7249999999999996</v>
+        <v>-0.7216666666666658</v>
       </c>
       <c r="M64" t="n">
         <v>-0.1183333333333358</v>
@@ -3290,7 +3290,7 @@
         <v>-0.3146666666666658</v>
       </c>
       <c r="L65" t="n">
-        <v>1.475</v>
+        <v>1.478333333333333</v>
       </c>
       <c r="M65" t="n">
         <v>-1.618333333333336</v>
@@ -3334,7 +3334,7 @@
         <v>-0.1046666666666649</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5749999999999993</v>
+        <v>0.5783333333333331</v>
       </c>
       <c r="M66" t="n">
         <v>-0.4183333333333366</v>
@@ -3378,7 +3378,7 @@
         <v>-0.2146666666666661</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6749999999999989</v>
+        <v>0.6783333333333328</v>
       </c>
       <c r="M67" t="n">
         <v>0.3816666666666642</v>
@@ -3422,7 +3422,7 @@
         <v>0.2853333333333339</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.8250000000000011</v>
+        <v>-0.8216666666666672</v>
       </c>
       <c r="M68" t="n">
         <v>-1.818333333333335</v>
@@ -3466,7 +3466,7 @@
         <v>-0.6246666666666663</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.245000000000001</v>
+        <v>-1.241666666666667</v>
       </c>
       <c r="M69" t="n">
         <v>-0.8383333333333365</v>
@@ -3510,7 +3510,7 @@
         <v>-0.5246666666666648</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.145000000000001</v>
+        <v>-1.141666666666667</v>
       </c>
       <c r="M70" t="n">
         <v>-2.138333333333335</v>
@@ -3554,7 +3554,7 @@
         <v>-2.024666666666665</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.245000000000001</v>
+        <v>-0.2416666666666671</v>
       </c>
       <c r="M71" t="n">
         <v>-0.6383333333333354</v>
@@ -3598,7 +3598,7 @@
         <v>0.4753333333333352</v>
       </c>
       <c r="L72" t="n">
-        <v>0.254999999999999</v>
+        <v>0.2583333333333329</v>
       </c>
       <c r="M72" t="n">
         <v>-0.6383333333333354</v>
@@ -3642,7 +3642,7 @@
         <v>0.4753333333333352</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.04499999999999993</v>
+        <v>-0.04166666666666607</v>
       </c>
       <c r="M73" t="n">
         <v>-0.9383333333333361</v>
@@ -3686,7 +3686,7 @@
         <v>-0.6246666666666663</v>
       </c>
       <c r="L74" t="n">
-        <v>0.254999999999999</v>
+        <v>0.2583333333333329</v>
       </c>
       <c r="M74" t="n">
         <v>1.061666666666664</v>
@@ -3730,7 +3730,7 @@
         <v>-1.124666666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="M75" t="n">
         <v>-1.038333333333336</v>
@@ -3774,7 +3774,7 @@
         <v>0.9753333333333352</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.9450000000000003</v>
+        <v>-0.9416666666666664</v>
       </c>
       <c r="M76" t="n">
         <v>-0.8383333333333365</v>
@@ -3818,7 +3818,7 @@
         <v>-0.9246666666666652</v>
       </c>
       <c r="L77" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="M77" t="n">
         <v>0.6616666666666635</v>
@@ -3862,7 +3862,7 @@
         <v>-1.624666666666666</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="M78" t="n">
         <v>0.5616666666666639</v>
@@ -3906,7 +3906,7 @@
         <v>0.2753333333333341</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1549999999999994</v>
+        <v>0.1583333333333332</v>
       </c>
       <c r="M79" t="n">
         <v>-1.138333333333335</v>
@@ -3950,7 +3950,7 @@
         <v>0.8753333333333337</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1549999999999994</v>
+        <v>0.1583333333333332</v>
       </c>
       <c r="M80" t="n">
         <v>0.06166666666666387</v>
@@ -3994,7 +3994,7 @@
         <v>0.9753333333333352</v>
       </c>
       <c r="L81" t="n">
-        <v>1.455</v>
+        <v>1.458333333333334</v>
       </c>
       <c r="M81" t="n">
         <v>0.1616666666666635</v>
@@ -4038,7 +4038,7 @@
         <v>1.475333333333335</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8549999999999986</v>
+        <v>0.8583333333333325</v>
       </c>
       <c r="M82" t="n">
         <v>-0.7383333333333368</v>
@@ -4082,7 +4082,7 @@
         <v>0.6653333333333347</v>
       </c>
       <c r="L83" t="n">
-        <v>0.754999999999999</v>
+        <v>0.7583333333333329</v>
       </c>
       <c r="M83" t="n">
         <v>0.6616666666666635</v>
@@ -4126,7 +4126,7 @@
         <v>-0.2246666666666659</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.8450000000000006</v>
+        <v>-0.8416666666666668</v>
       </c>
       <c r="M84" t="n">
         <v>-0.8383333333333365</v>
@@ -4170,7 +4170,7 @@
         <v>-1.524666666666665</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9550000000000001</v>
+        <v>0.9583333333333339</v>
       </c>
       <c r="M85" t="n">
         <v>0.06166666666666387</v>
@@ -4214,7 +4214,7 @@
         <v>-0.5246666666666648</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.245000000000001</v>
+        <v>-1.241666666666667</v>
       </c>
       <c r="M86" t="n">
         <v>-0.9383333333333361</v>
@@ -4258,7 +4258,7 @@
         <v>-0.9246666666666652</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="M87" t="n">
         <v>-0.3383333333333365</v>
@@ -4302,7 +4302,7 @@
         <v>0.4753333333333352</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.8450000000000006</v>
+        <v>-0.8416666666666668</v>
       </c>
       <c r="M88" t="n">
         <v>1.061666666666664</v>
@@ -4346,7 +4346,7 @@
         <v>-0.02466666666666484</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.4450000000000003</v>
+        <v>-0.4416666666666664</v>
       </c>
       <c r="M89" t="n">
         <v>-1.038333333333336</v>
@@ -4390,7 +4390,7 @@
         <v>0.1653333333333347</v>
       </c>
       <c r="L90" t="n">
-        <v>1.154999999999999</v>
+        <v>1.158333333333333</v>
       </c>
       <c r="M90" t="n">
         <v>-1.138333333333335</v>
@@ -4434,7 +4434,7 @@
         <v>1.415333333333335</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="M91" t="n">
         <v>0.2116666666666642</v>
@@ -4478,7 +4478,7 @@
         <v>0.4153333333333347</v>
       </c>
       <c r="L92" t="n">
-        <v>1.004999999999999</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="M92" t="n">
         <v>-0.7883333333333358</v>
@@ -4522,7 +4522,7 @@
         <v>0.2253333333333352</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.195</v>
+        <v>-1.191666666666666</v>
       </c>
       <c r="M93" t="n">
         <v>0.7116666666666642</v>
@@ -4566,7 +4566,7 @@
         <v>1.725333333333335</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="M94" t="n">
         <v>1.511666666666663</v>
@@ -4610,7 +4610,7 @@
         <v>-1.474666666666666</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.195</v>
+        <v>-1.191666666666666</v>
       </c>
       <c r="M95" t="n">
         <v>-0.2883333333333358</v>
@@ -4654,7 +4654,7 @@
         <v>-1.174666666666665</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.1950000000000003</v>
+        <v>-0.1916666666666664</v>
       </c>
       <c r="M96" t="n">
         <v>0.8116666666666639</v>
@@ -4698,7 +4698,7 @@
         <v>0.2253333333333352</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.495000000000001</v>
+        <v>-0.4916666666666671</v>
       </c>
       <c r="M97" t="n">
         <v>-2.288333333333336</v>
@@ -4742,7 +4742,7 @@
         <v>0.115333333333334</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.09500000000000064</v>
+        <v>-0.09166666666666679</v>
       </c>
       <c r="M98" t="n">
         <v>1.211666666666662</v>
@@ -4786,7 +4786,7 @@
         <v>0.115333333333334</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="M99" t="n">
         <v>-2.288333333333336</v>
@@ -4830,7 +4830,7 @@
         <v>-0.384666666666666</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.5950000000000006</v>
+        <v>-0.5916666666666668</v>
       </c>
       <c r="M100" t="n">
         <v>0.3116666666666639</v>
@@ -4874,7 +4874,7 @@
         <v>0.115333333333334</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1049999999999986</v>
+        <v>0.1083333333333325</v>
       </c>
       <c r="M101" t="n">
         <v>-0.4883333333333368</v>
@@ -4918,7 +4918,7 @@
         <v>-1.084666666666665</v>
       </c>
       <c r="L102" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="M102" t="n">
         <v>-0.2883333333333358</v>
@@ -4962,7 +4962,7 @@
         <v>-0.7746666666666648</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="M103" t="n">
         <v>2.111666666666665</v>
@@ -5006,7 +5006,7 @@
         <v>0.7253333333333352</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="M104" t="n">
         <v>0.1116666666666646</v>
@@ -5050,7 +5050,7 @@
         <v>-0.384666666666666</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.3950000000000014</v>
+        <v>-0.3916666666666675</v>
       </c>
       <c r="M105" t="n">
         <v>1.111666666666665</v>
@@ -5094,7 +5094,7 @@
         <v>0.2253333333333352</v>
       </c>
       <c r="L106" t="n">
-        <v>0.7050000000000001</v>
+        <v>0.7083333333333339</v>
       </c>
       <c r="M106" t="n">
         <v>-0.08833333333333648</v>
@@ -5138,7 +5138,7 @@
         <v>0.0253333333333341</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.6950000000000003</v>
+        <v>-0.6916666666666664</v>
       </c>
       <c r="M107" t="n">
         <v>-0.08833333333333648</v>
@@ -5182,7 +5182,7 @@
         <v>0.5253333333333341</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.2949999999999999</v>
+        <v>-0.2916666666666661</v>
       </c>
       <c r="M108" t="n">
         <v>0.01166666666666316</v>
@@ -5226,7 +5226,7 @@
         <v>0.615333333333334</v>
       </c>
       <c r="L109" t="n">
-        <v>0.504999999999999</v>
+        <v>0.5083333333333329</v>
       </c>
       <c r="M109" t="n">
         <v>-0.8883333333333354</v>
@@ -5270,7 +5270,7 @@
         <v>1.225333333333335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3049999999999997</v>
+        <v>0.3083333333333336</v>
       </c>
       <c r="M110" t="n">
         <v>1.111666666666665</v>
@@ -5314,7 +5314,7 @@
         <v>-0.884666666666666</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.09500000000000064</v>
+        <v>-0.09166666666666679</v>
       </c>
       <c r="M111" t="n">
         <v>0.8116666666666639</v>
@@ -5358,7 +5358,7 @@
         <v>0.3253333333333348</v>
       </c>
       <c r="L112" t="n">
-        <v>1.004999999999999</v>
+        <v>1.008333333333333</v>
       </c>
       <c r="M112" t="n">
         <v>0.6116666666666646</v>
@@ -5402,13 +5402,13 @@
         <v>0.7253333333333352</v>
       </c>
       <c r="L113" t="n">
-        <v>1.305</v>
+        <v>1.208333333333334</v>
       </c>
       <c r="M113" t="n">
         <v>0.01166666666666316</v>
       </c>
       <c r="N113" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114">
@@ -5446,7 +5446,7 @@
         <v>1.225333333333335</v>
       </c>
       <c r="L114" t="n">
-        <v>1.605</v>
+        <v>1.608333333333334</v>
       </c>
       <c r="M114" t="n">
         <v>2.611666666666665</v>
@@ -5490,7 +5490,7 @@
         <v>0.4253333333333345</v>
       </c>
       <c r="L115" t="n">
-        <v>1.205</v>
+        <v>1.208333333333334</v>
       </c>
       <c r="M115" t="n">
         <v>1.411666666666662</v>
@@ -5534,7 +5534,7 @@
         <v>0.6253333333333355</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4049999999999994</v>
+        <v>0.4083333333333332</v>
       </c>
       <c r="M116" t="n">
         <v>1.311666666666664</v>
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-0.9199999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.6533333333333342</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.03</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -10530,7 +10532,7 @@
         <v>0.5900000000000007</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9800000000000013</v>
+        <v>0.8800000000000008</v>
       </c>
       <c r="K114" t="n">
         <v>1.903333333333332</v>
@@ -10542,7 +10544,7 @@
         <v>3.02</v>
       </c>
       <c r="N114" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10646,7 +10648,9 @@
       <c r="D117" t="n">
         <v>-1.555172413793104</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-0.4233333333333311</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10656,7 +10660,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.23</v>
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -15775,7 +15779,7 @@
         <v>0.2099999999999973</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7033333333333331</v>
+        <v>0.6033333333333335</v>
       </c>
       <c r="F116" t="n">
         <v>2.056666666666667</v>
@@ -15818,7 +15822,9 @@
       <c r="D117" t="n">
         <v>-0.7900000000000027</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.2033333333333331</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15828,7 +15834,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -20990,7 +20996,9 @@
       <c r="D117" t="n">
         <v>-1.027000000000001</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.8929999999999989</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21000,7 +21008,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -26068,7 +26076,9 @@
       <c r="D117" t="n">
         <v>-1.373333333333333</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5400000000000009</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26078,7 +26088,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.91</v>
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31250,9 @@
       <c r="D117" t="n">
         <v>-1.215666666666666</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.3910000000000009</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31250,7 +31262,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.15</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -36412,7 +36424,9 @@
       <c r="D117" t="n">
         <v>-1.000666666666671</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.1060000000000034</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36422,7 +36436,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.14</v>
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -36590,7 +36604,7 @@
         <v>-0.1498000000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04253333333333309</v>
+        <v>-0.04186666666666632</v>
       </c>
       <c r="M3" t="n">
         <v>-0.9888666666666672</v>
@@ -36634,7 +36648,7 @@
         <v>-1.571800000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.062533333333333</v>
+        <v>-2.061866666666666</v>
       </c>
       <c r="M4" t="n">
         <v>-3.308866666666668</v>
@@ -36678,7 +36692,7 @@
         <v>-0.6965238095238099</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.127999999999999</v>
+        <v>-1.127523809523809</v>
       </c>
       <c r="M5" t="n">
         <v>-1.370619047619048</v>
@@ -36722,7 +36736,7 @@
         <v>-0.2379523809523808</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8837142857142855</v>
+        <v>-0.8832380952380949</v>
       </c>
       <c r="M6" t="n">
         <v>-1.926333333333334</v>
@@ -36766,7 +36780,7 @@
         <v>-1.409380952380953</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.412285714285714</v>
+        <v>-1.411809523809524</v>
       </c>
       <c r="M7" t="n">
         <v>-3.31204761904762</v>
@@ -36810,7 +36824,7 @@
         <v>0.7049047619047618</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.8837142857142851</v>
+        <v>-0.8832380952380945</v>
       </c>
       <c r="M8" t="n">
         <v>-0.3891904761904768</v>
@@ -36854,7 +36868,7 @@
         <v>-0.3008095238095239</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8534285714285719</v>
+        <v>0.8539047619047624</v>
       </c>
       <c r="M9" t="n">
         <v>0.2536666666666658</v>
@@ -36898,7 +36912,7 @@
         <v>0.1277619047619045</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2962857142857149</v>
+        <v>0.2967619047619054</v>
       </c>
       <c r="M10" t="n">
         <v>-1.460619047619048</v>
@@ -36942,7 +36956,7 @@
         <v>-0.7136666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.503714285714285</v>
+        <v>-1.503238095238095</v>
       </c>
       <c r="M11" t="n">
         <v>-2.83204761904762</v>
@@ -36986,7 +37000,7 @@
         <v>-1.143666666666667</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.246571428571428</v>
+        <v>-2.246095238095238</v>
       </c>
       <c r="M12" t="n">
         <v>-2.903476190476191</v>
@@ -37030,7 +37044,7 @@
         <v>-0.5722380952380953</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.818</v>
+        <v>-1.817523809523809</v>
       </c>
       <c r="M13" t="n">
         <v>-1.299190476190477</v>
@@ -37074,7 +37088,7 @@
         <v>0.362047619047619</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.042285714285714</v>
+        <v>-1.041809523809523</v>
       </c>
       <c r="M14" t="n">
         <v>-1.613476190476191</v>
@@ -37118,7 +37132,7 @@
         <v>0.6034761904761902</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9137142857142854</v>
+        <v>-0.9132380952380947</v>
       </c>
       <c r="M15" t="n">
         <v>-0.5134761904761912</v>
@@ -37162,7 +37176,7 @@
         <v>0.01919047619047604</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8262857142857147</v>
+        <v>0.8267619047619054</v>
       </c>
       <c r="M16" t="n">
         <v>0.2550952380952375</v>
@@ -37206,7 +37220,7 @@
         <v>0.7577619047619049</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1120000000000003</v>
+        <v>0.1124761904761909</v>
       </c>
       <c r="M17" t="n">
         <v>-1.273476190476191</v>
@@ -37250,7 +37264,7 @@
         <v>-0.4993809523809523</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.559428571428571</v>
+        <v>-1.55895238095238</v>
       </c>
       <c r="M18" t="n">
         <v>-1.30204761904762</v>
@@ -37294,7 +37308,7 @@
         <v>-0.0908095238095239</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.609428571428571</v>
+        <v>-1.608952380952381</v>
       </c>
       <c r="M19" t="n">
         <v>-1.75204761904762</v>
@@ -37338,7 +37352,7 @@
         <v>-0.9208095238095239</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.495142857142857</v>
+        <v>-1.494666666666666</v>
       </c>
       <c r="M20" t="n">
         <v>-2.037761904761906</v>
@@ -37382,7 +37396,7 @@
         <v>-0.08366666666666678</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.9979999999999999</v>
+        <v>-0.9975238095238093</v>
       </c>
       <c r="M21" t="n">
         <v>-1.069190476190477</v>
@@ -37426,7 +37440,7 @@
         <v>-0.8950952380952384</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1408571428571426</v>
+        <v>-0.140380952380952</v>
       </c>
       <c r="M22" t="n">
         <v>-1.369190476190477</v>
@@ -37470,7 +37484,7 @@
         <v>-2.265095238095238</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.212285714285714</v>
+        <v>-2.211809523809523</v>
       </c>
       <c r="M23" t="n">
         <v>-1.91204761904762</v>
@@ -37514,7 +37528,7 @@
         <v>-0.8522380952380954</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.1408571428571423</v>
+        <v>-0.1403809523809518</v>
       </c>
       <c r="M24" t="n">
         <v>-0.9834761904761916</v>
@@ -37558,7 +37572,7 @@
         <v>0.3449047619047619</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6594285714285709</v>
+        <v>-0.6589523809523803</v>
       </c>
       <c r="M25" t="n">
         <v>-1.444904761904762</v>
@@ -37602,7 +37616,7 @@
         <v>-1.070809523809524</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.488</v>
+        <v>-1.487523809523809</v>
       </c>
       <c r="M26" t="n">
         <v>-0.7877619047619054</v>
@@ -37646,7 +37660,7 @@
         <v>-0.6565238095238096</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5120000000000006</v>
+        <v>0.5124761904761911</v>
       </c>
       <c r="M27" t="n">
         <v>1.59795238095238</v>
@@ -37690,7 +37704,7 @@
         <v>-0.02795238095238111</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.016571428571428</v>
+        <v>-2.016095238095237</v>
       </c>
       <c r="M28" t="n">
         <v>0.9265238095238088</v>
@@ -37734,7 +37748,7 @@
         <v>0.3863333333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2737142857142851</v>
+        <v>-0.2732380952380946</v>
       </c>
       <c r="M29" t="n">
         <v>-1.744904761904763</v>
@@ -37778,7 +37792,7 @@
         <v>-1.955095238095238</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.4594285714285711</v>
+        <v>-0.4589523809523805</v>
       </c>
       <c r="M30" t="n">
         <v>0.283666666666666</v>
@@ -37822,7 +37836,7 @@
         <v>-0.4550952380952383</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3262857142857148</v>
+        <v>0.3267619047619053</v>
       </c>
       <c r="M31" t="n">
         <v>-2.144904761904763</v>
@@ -37866,7 +37880,7 @@
         <v>-1.455095238095238</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0594285714285711</v>
+        <v>-0.05895238095238055</v>
       </c>
       <c r="M32" t="n">
         <v>-0.3449047619047629</v>
@@ -37910,7 +37924,7 @@
         <v>-1.142238095238095</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.259428571428571</v>
+        <v>-1.258952380952381</v>
       </c>
       <c r="M33" t="n">
         <v>-0.2877619047619055</v>
@@ -37954,7 +37968,7 @@
         <v>-1.455095238095238</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.8594285714285711</v>
+        <v>-0.8589523809523805</v>
       </c>
       <c r="M34" t="n">
         <v>-1.430619047619049</v>
@@ -37998,7 +38012,7 @@
         <v>0.2177619047619046</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.415142857142857</v>
+        <v>-0.4146666666666664</v>
       </c>
       <c r="M35" t="n">
         <v>-2.263476190476191</v>
@@ -38042,7 +38056,7 @@
         <v>-0.9879523809523812</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2779999999999996</v>
+        <v>-0.277523809523809</v>
       </c>
       <c r="M36" t="n">
         <v>-0.4634761904761913</v>
@@ -38086,7 +38100,7 @@
         <v>-0.9050952380952381</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.266571428571428</v>
+        <v>-1.266095238095237</v>
       </c>
       <c r="M37" t="n">
         <v>-2.45204761904762</v>
@@ -38130,7 +38144,7 @@
         <v>-2.50652380952381</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6679999999999995</v>
+        <v>-0.667523809523809</v>
       </c>
       <c r="M38" t="n">
         <v>-3.339190476190476</v>
@@ -38174,7 +38188,7 @@
         <v>-1.679380952380953</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.653714285714286</v>
+        <v>-3.653238095238095</v>
       </c>
       <c r="M39" t="n">
         <v>-2.624904761904763</v>
@@ -38218,7 +38232,7 @@
         <v>-0.3093809523809525</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.7265714285714279</v>
+        <v>-0.7260952380952373</v>
       </c>
       <c r="M40" t="n">
         <v>-0.1549047619047629</v>
@@ -38262,7 +38276,7 @@
         <v>-1.109380952380952</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.069428571428571</v>
+        <v>-1.068952380952381</v>
       </c>
       <c r="M41" t="n">
         <v>-1.397761904761905</v>
@@ -38306,7 +38320,7 @@
         <v>0.462047619047619</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.126571428571428</v>
+        <v>-1.126095238095238</v>
       </c>
       <c r="M42" t="n">
         <v>-1.840619047619048</v>
@@ -38350,7 +38364,7 @@
         <v>-0.2522380952380954</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.3837142857142853</v>
+        <v>-0.3832380952380948</v>
       </c>
       <c r="M43" t="n">
         <v>-1.226333333333334</v>
@@ -38394,7 +38408,7 @@
         <v>-0.2422380952380951</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.5894285714285709</v>
+        <v>-0.5889523809523803</v>
       </c>
       <c r="M44" t="n">
         <v>-2.289190476190477</v>
@@ -38438,7 +38452,7 @@
         <v>-0.02795238095238111</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03914285714285765</v>
+        <v>0.03961904761904821</v>
       </c>
       <c r="M45" t="n">
         <v>-0.1320476190476201</v>
@@ -38482,7 +38496,7 @@
         <v>-0.9136666666666668</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6248571428571433</v>
+        <v>0.6253333333333339</v>
       </c>
       <c r="M46" t="n">
         <v>-0.7749047619047627</v>
@@ -38526,7 +38540,7 @@
         <v>-1.770809523809524</v>
       </c>
       <c r="L47" t="n">
-        <v>1.253428571428573</v>
+        <v>1.253904761904763</v>
       </c>
       <c r="M47" t="n">
         <v>-0.2749047619047627</v>
@@ -38570,7 +38584,7 @@
         <v>0.3434761904761904</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.7608571428571426</v>
+        <v>-0.760380952380952</v>
       </c>
       <c r="M48" t="n">
         <v>-0.2606190476190484</v>
@@ -38614,7 +38628,7 @@
         <v>0.2277619047619045</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01057142857142893</v>
+        <v>0.01104761904761948</v>
       </c>
       <c r="M49" t="n">
         <v>-0.5463333333333343</v>
@@ -38658,7 +38672,7 @@
         <v>-1.313666666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.4465714285714282</v>
+        <v>-0.4460952380952377</v>
       </c>
       <c r="M50" t="n">
         <v>-2.03204761904762</v>
@@ -38702,7 +38716,7 @@
         <v>0.8706190476190476</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.08942857142857109</v>
+        <v>-0.08895238095238055</v>
       </c>
       <c r="M51" t="n">
         <v>0.4822380952380944</v>
@@ -38746,7 +38760,7 @@
         <v>-1.615095238095238</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.4179999999999994</v>
+        <v>-0.4175238095238089</v>
       </c>
       <c r="M52" t="n">
         <v>0.1393809523809517</v>
@@ -38790,7 +38804,7 @@
         <v>0.4863333333333334</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.5365714285714281</v>
+        <v>-0.5360952380952375</v>
       </c>
       <c r="M53" t="n">
         <v>-2.093476190476191</v>
@@ -38834,7 +38848,7 @@
         <v>0.8963333333333334</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.05085714285714259</v>
+        <v>-0.05038095238095203</v>
       </c>
       <c r="M54" t="n">
         <v>0.1065238095238085</v>
@@ -38878,7 +38892,7 @@
         <v>1.224904761904762</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.2651428571428566</v>
+        <v>-0.2646666666666661</v>
       </c>
       <c r="M55" t="n">
         <v>-0.9506190476190485</v>
@@ -38922,7 +38936,7 @@
         <v>-0.2322380952380951</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.622285714285714</v>
+        <v>-1.621809523809523</v>
       </c>
       <c r="M56" t="n">
         <v>-2.007761904761905</v>
@@ -38966,7 +38980,7 @@
         <v>-0.8436666666666668</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.8179999999999995</v>
+        <v>-0.817523809523809</v>
       </c>
       <c r="M57" t="n">
         <v>-0.189190476190477</v>
@@ -39010,7 +39024,7 @@
         <v>-1.799380952380952</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.8179999999999997</v>
+        <v>-0.8175238095238092</v>
       </c>
       <c r="M58" t="n">
         <v>-1.23204761904762</v>
@@ -39054,7 +39068,7 @@
         <v>-0.9993809523809524</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.046571428571428</v>
+        <v>-1.046095238095238</v>
       </c>
       <c r="M59" t="n">
         <v>-1.189190476190477</v>
@@ -39098,7 +39112,7 @@
         <v>-0.3008095238095241</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.8208571428571425</v>
+        <v>-0.820380952380952</v>
       </c>
       <c r="M60" t="n">
         <v>-0.3920476190476196</v>
@@ -39142,7 +39156,7 @@
         <v>-1.202238095238095</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.335142857142857</v>
+        <v>-1.334666666666666</v>
       </c>
       <c r="M61" t="n">
         <v>-1.349190476190477</v>
@@ -39186,7 +39200,7 @@
         <v>-1.745095238095238</v>
       </c>
       <c r="L62" t="n">
-        <v>0.393428571428572</v>
+        <v>0.3939047619047625</v>
       </c>
       <c r="M62" t="n">
         <v>1.022238095238094</v>
@@ -39230,7 +39244,7 @@
         <v>0.06776190476190459</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07914285714285756</v>
+        <v>0.07961904761904812</v>
       </c>
       <c r="M63" t="n">
         <v>-0.206333333333334</v>
@@ -39274,7 +39288,7 @@
         <v>-0.4022380952380953</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.3208571428571422</v>
+        <v>-0.3203809523809516</v>
       </c>
       <c r="M64" t="n">
         <v>0.07938095238095169</v>
@@ -39318,7 +39332,7 @@
         <v>0.0106190476190474</v>
       </c>
       <c r="L65" t="n">
-        <v>1.379142857142858</v>
+        <v>1.379619047619048</v>
       </c>
       <c r="M65" t="n">
         <v>-1.906333333333334</v>
@@ -39362,7 +39376,7 @@
         <v>-0.2450952380952383</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5362857142857146</v>
+        <v>0.5367619047619051</v>
       </c>
       <c r="M66" t="n">
         <v>-0.2206190476190482</v>
@@ -39406,7 +39420,7 @@
         <v>-0.2465238095238098</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6220000000000006</v>
+        <v>0.6224761904761911</v>
       </c>
       <c r="M67" t="n">
         <v>0.8793809523809516</v>
@@ -39450,7 +39464,7 @@
         <v>-0.2750952380952383</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.8351428571428567</v>
+        <v>-0.8346666666666662</v>
       </c>
       <c r="M68" t="n">
         <v>-2.034904761904762</v>
@@ -39494,7 +39508,7 @@
         <v>-1.242238095238096</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.532285714285714</v>
+        <v>-1.531809523809524</v>
       </c>
       <c r="M69" t="n">
         <v>-0.203476190476192</v>
@@ -39538,7 +39552,7 @@
         <v>-0.885095238095238</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.089428571428571</v>
+        <v>-1.088952380952381</v>
       </c>
       <c r="M70" t="n">
         <v>-1.717761904761905</v>
@@ -39582,7 +39596,7 @@
         <v>-1.242238095238095</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.3608571428571427</v>
+        <v>-0.3603809523809521</v>
       </c>
       <c r="M71" t="n">
         <v>-0.489190476190477</v>
@@ -39626,7 +39640,7 @@
         <v>0.01490476190476198</v>
       </c>
       <c r="L72" t="n">
-        <v>0.710571428571429</v>
+        <v>0.7110476190476195</v>
       </c>
       <c r="M72" t="n">
         <v>-0.43204761904762</v>
@@ -39670,7 +39684,7 @@
         <v>0.6291904761904761</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.060857142857142</v>
+        <v>-1.060380952380952</v>
       </c>
       <c r="M73" t="n">
         <v>-0.6606190476190482</v>
@@ -39714,7 +39728,7 @@
         <v>-0.08509523809523831</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6534285714285717</v>
+        <v>0.6539047619047622</v>
       </c>
       <c r="M74" t="n">
         <v>1.382238095238094</v>
@@ -39758,7 +39772,7 @@
         <v>-1.75652380952381</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6962857142857147</v>
+        <v>0.6967619047619052</v>
       </c>
       <c r="M75" t="n">
         <v>-1.974904761904763</v>
@@ -39802,7 +39816,7 @@
         <v>0.7149047619047618</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.1894285714285708</v>
+        <v>-0.1889523809523802</v>
       </c>
       <c r="M76" t="n">
         <v>-1.146333333333334</v>
@@ -39846,7 +39860,7 @@
         <v>-0.5850952380952382</v>
       </c>
       <c r="L77" t="n">
-        <v>1.124857142857143</v>
+        <v>1.125333333333334</v>
       </c>
       <c r="M77" t="n">
         <v>0.7250952380952371</v>
@@ -39890,7 +39904,7 @@
         <v>-1.099380952380953</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.03228571428571377</v>
+        <v>-0.03180952380952323</v>
       </c>
       <c r="M78" t="n">
         <v>1.025095238095238</v>
@@ -39934,7 +39948,7 @@
         <v>0.9006190476190472</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1391428571428577</v>
+        <v>0.1396190476190482</v>
       </c>
       <c r="M79" t="n">
         <v>-0.1034761904761911</v>
@@ -39978,7 +39992,7 @@
         <v>0.1649047619047618</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4891428571428577</v>
+        <v>0.4896190476190482</v>
       </c>
       <c r="M80" t="n">
         <v>-0.2391904761904769</v>
@@ -40022,7 +40036,7 @@
         <v>1.022047619047619</v>
       </c>
       <c r="L81" t="n">
-        <v>0.960571428571429</v>
+        <v>0.9610476190476195</v>
       </c>
       <c r="M81" t="n">
         <v>0.7322380952380946</v>
@@ -40066,7 +40080,7 @@
         <v>1.09347619047619</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.8324761904761907</v>
       </c>
       <c r="M82" t="n">
         <v>-0.5963333333333344</v>
@@ -40110,7 +40124,7 @@
         <v>-0.007952380952381028</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2891428571428575</v>
+        <v>0.2896190476190481</v>
       </c>
       <c r="M83" t="n">
         <v>0.08938095238095148</v>
@@ -40154,7 +40168,7 @@
         <v>-0.4022380952380954</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.363714285714285</v>
+        <v>-1.363238095238095</v>
       </c>
       <c r="M84" t="n">
         <v>-0.9063333333333341</v>
@@ -40198,7 +40212,7 @@
         <v>-0.630809523809524</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8505714285714291</v>
+        <v>0.8510476190476196</v>
       </c>
       <c r="M85" t="n">
         <v>-0.6634761904761911</v>
@@ -40242,7 +40256,7 @@
         <v>0.1263333333333333</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.378</v>
+        <v>-1.377523809523809</v>
       </c>
       <c r="M86" t="n">
         <v>-1.020619047619048</v>
@@ -40286,7 +40300,7 @@
         <v>-1.287952380952381</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.2494285714285712</v>
+        <v>-0.2489523809523807</v>
       </c>
       <c r="M87" t="n">
         <v>-0.7206190476190485</v>
@@ -40330,7 +40344,7 @@
         <v>-0.05938095238095225</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.749428571428571</v>
+        <v>-0.7489523809523805</v>
       </c>
       <c r="M88" t="n">
         <v>1.036523809523809</v>
@@ -40374,7 +40388,7 @@
         <v>0.4263333333333335</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.020857142857142</v>
+        <v>-1.020380952380952</v>
       </c>
       <c r="M89" t="n">
         <v>-1.013476190476191</v>
@@ -40418,7 +40432,7 @@
         <v>-0.09509523809523797</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.0551428571428564</v>
+        <v>-0.05466666666666585</v>
       </c>
       <c r="M90" t="n">
         <v>-1.083476190476192</v>
@@ -40462,7 +40476,7 @@
         <v>1.254904761904762</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0662857142857151</v>
+        <v>0.06676190476190566</v>
       </c>
       <c r="M91" t="n">
         <v>0.180809523809523</v>
@@ -40506,7 +40520,7 @@
         <v>1.369190476190476</v>
       </c>
       <c r="L92" t="n">
-        <v>1.280571428571429</v>
+        <v>1.281047619047619</v>
       </c>
       <c r="M92" t="n">
         <v>-1.033476190476191</v>
@@ -40550,7 +40564,7 @@
         <v>0.1806190476190476</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.823714285714285</v>
+        <v>-1.823238095238095</v>
       </c>
       <c r="M93" t="n">
         <v>0.790809523809523</v>
@@ -40594,7 +40608,7 @@
         <v>1.637761904761905</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8762857142857147</v>
+        <v>0.8767619047619053</v>
       </c>
       <c r="M94" t="n">
         <v>1.34795238095238</v>
@@ -40638,7 +40652,7 @@
         <v>-1.619380952380953</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.6522857142857138</v>
+        <v>-0.6518095238095232</v>
       </c>
       <c r="M95" t="n">
         <v>-0.1520476190476199</v>
@@ -40682,7 +40696,7 @@
         <v>-0.7765238095238096</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.7951428571428567</v>
+        <v>-0.7946666666666662</v>
       </c>
       <c r="M96" t="n">
         <v>-0.1520476190476201</v>
@@ -40726,7 +40740,7 @@
         <v>0.1377619047619045</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5048571428571431</v>
+        <v>0.5053333333333336</v>
       </c>
       <c r="M97" t="n">
         <v>-2.237761904761906</v>
@@ -40770,7 +40784,7 @@
         <v>-0.08938095238095249</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.1351428571428567</v>
+        <v>-0.1346666666666662</v>
       </c>
       <c r="M98" t="n">
         <v>1.936523809523809</v>
@@ -40814,7 +40828,7 @@
         <v>-0.160809523809524</v>
       </c>
       <c r="L99" t="n">
-        <v>0.007714285714286133</v>
+        <v>0.008190476190476683</v>
       </c>
       <c r="M99" t="n">
         <v>-2.09204761904762</v>
@@ -40858,7 +40872,7 @@
         <v>-0.6750952380952382</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.6922857142857139</v>
+        <v>-0.6918095238095233</v>
       </c>
       <c r="M100" t="n">
         <v>0.4793809523809513</v>
@@ -40902,7 +40916,7 @@
         <v>-0.4179523809523809</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2648571428571428</v>
+        <v>0.2653333333333334</v>
       </c>
       <c r="M101" t="n">
         <v>0.09366666666666593</v>
@@ -40946,7 +40960,7 @@
         <v>-1.332238095238095</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.1065714285714282</v>
+        <v>-0.1060952380952377</v>
       </c>
       <c r="M102" t="n">
         <v>-0.5063333333333342</v>
@@ -40990,7 +41004,7 @@
         <v>-0.6879523809523809</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9362857142857146</v>
+        <v>0.9367619047619051</v>
       </c>
       <c r="M103" t="n">
         <v>1.550809523809523</v>
@@ -41034,7 +41048,7 @@
         <v>0.5834761904761905</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.03514285714285657</v>
+        <v>-0.03466666666666602</v>
       </c>
       <c r="M104" t="n">
         <v>0.4079523809523798</v>
@@ -41078,7 +41092,7 @@
         <v>-0.4322380952380953</v>
       </c>
       <c r="L105" t="n">
-        <v>-1.092285714285714</v>
+        <v>-1.091809523809523</v>
       </c>
       <c r="M105" t="n">
         <v>0.8793809523809519</v>
@@ -41122,7 +41136,7 @@
         <v>0.6263333333333331</v>
       </c>
       <c r="L106" t="n">
-        <v>1.407714285714286</v>
+        <v>1.408190476190477</v>
       </c>
       <c r="M106" t="n">
         <v>0.6079523809523801</v>
@@ -41166,7 +41180,7 @@
         <v>-0.4165238095238096</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.6065714285714281</v>
+        <v>-0.6060952380952376</v>
       </c>
       <c r="M107" t="n">
         <v>0.3079523809523797</v>
@@ -41210,7 +41224,7 @@
         <v>0.04061904761904727</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.3922857142857137</v>
+        <v>-0.3918095238095232</v>
       </c>
       <c r="M108" t="n">
         <v>-0.6491904761904769</v>
@@ -41254,7 +41268,7 @@
         <v>0.7820476190476187</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7220000000000002</v>
+        <v>0.7224761904761907</v>
       </c>
       <c r="M109" t="n">
         <v>-0.6206190476190486</v>
@@ -41298,7 +41312,7 @@
         <v>0.9406190476190474</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9362857142857149</v>
+        <v>0.9367619047619055</v>
       </c>
       <c r="M110" t="n">
         <v>1.60795238095238</v>
@@ -41342,7 +41356,7 @@
         <v>0.1677619047619045</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5934285714285717</v>
+        <v>0.5939047619047624</v>
       </c>
       <c r="M111" t="n">
         <v>1.493666666666666</v>
@@ -41386,7 +41400,7 @@
         <v>-0.2736666666666667</v>
       </c>
       <c r="L112" t="n">
-        <v>1.522</v>
+        <v>1.522476190476191</v>
       </c>
       <c r="M112" t="n">
         <v>0.09366666666666568</v>
@@ -41430,13 +41444,13 @@
         <v>1.08347619047619</v>
       </c>
       <c r="L113" t="n">
-        <v>1.179142857142857</v>
+        <v>1.165333333333334</v>
       </c>
       <c r="M113" t="n">
         <v>0.03652380952380848</v>
       </c>
       <c r="N113" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="114">
@@ -41468,19 +41482,19 @@
         <v>1.027761904761905</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0418571428571425</v>
+        <v>0.02757142857142814</v>
       </c>
       <c r="K114" t="n">
         <v>1.48347619047619</v>
       </c>
       <c r="L114" t="n">
-        <v>2.007714285714286</v>
+        <v>2.008190476190477</v>
       </c>
       <c r="M114" t="n">
         <v>2.022238095238094</v>
       </c>
       <c r="N114" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="115">
@@ -41518,7 +41532,7 @@
         <v>-0.08795238095238135</v>
       </c>
       <c r="L115" t="n">
-        <v>1.979142857142858</v>
+        <v>1.979619047619048</v>
       </c>
       <c r="M115" t="n">
         <v>1.279380952380951</v>
@@ -41541,7 +41555,7 @@
         <v>-0.02597701149425369</v>
       </c>
       <c r="E116" t="n">
-        <v>1.380476190476191</v>
+        <v>1.366190476190477</v>
       </c>
       <c r="F116" t="n">
         <v>2.468571428571429</v>
@@ -41562,7 +41576,7 @@
         <v>-0.0165238095238098</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4791428571428576</v>
+        <v>0.4796190476190482</v>
       </c>
       <c r="M116" t="n">
         <v>1.336523809523808</v>
@@ -41584,7 +41598,9 @@
       <c r="D117" t="n">
         <v>-1.125977011494254</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.3376190476190487</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41594,7 +41610,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -42510,13 +42526,13 @@
         <v>-0.92</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.5</v>
+        <v>-1.49</v>
       </c>
       <c r="M20" t="n">
         <v>-2.04</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.32</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="21">
@@ -43170,13 +43186,13 @@
         <v>0.22</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="M35" t="n">
         <v>-2.26</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.88</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="36">
@@ -43654,7 +43670,7 @@
         <v>-0.91</v>
       </c>
       <c r="L46" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M46" t="n">
         <v>-0.77</v>
@@ -44050,7 +44066,7 @@
         <v>1.22</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="M55" t="n">
         <v>-0.95</v>
@@ -44314,7 +44330,7 @@
         <v>-1.2</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.34</v>
+        <v>-1.33</v>
       </c>
       <c r="M61" t="n">
         <v>-1.35</v>
@@ -44622,7 +44638,7 @@
         <v>-0.28</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.84</v>
+        <v>-0.83</v>
       </c>
       <c r="M68" t="n">
         <v>-2.03</v>
@@ -45018,7 +45034,7 @@
         <v>-0.59</v>
       </c>
       <c r="L77" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M77" t="n">
         <v>0.73</v>
@@ -45590,7 +45606,7 @@
         <v>-0.1</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="M90" t="n">
         <v>-1.08</v>
@@ -45854,7 +45870,7 @@
         <v>-0.78</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="M96" t="n">
         <v>-0.15</v>
@@ -45898,7 +45914,7 @@
         <v>0.14</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M97" t="n">
         <v>-2.24</v>
@@ -45942,7 +45958,7 @@
         <v>-0.09</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="M98" t="n">
         <v>1.94</v>
@@ -46074,7 +46090,7 @@
         <v>-0.42</v>
       </c>
       <c r="L101" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M101" t="n">
         <v>0.09</v>
@@ -46206,7 +46222,7 @@
         <v>0.58</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="M104" t="n">
         <v>0.41</v>
@@ -46602,7 +46618,7 @@
         <v>1.08</v>
       </c>
       <c r="L113" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M113" t="n">
         <v>0.04</v>
@@ -46640,7 +46656,7 @@
         <v>1.03</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K114" t="n">
         <v>1.48</v>
@@ -46652,7 +46668,7 @@
         <v>2.02</v>
       </c>
       <c r="N114" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="115">
@@ -46713,7 +46729,7 @@
         <v>-0.03</v>
       </c>
       <c r="E116" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F116" t="n">
         <v>2.47</v>
@@ -46756,7 +46772,9 @@
       <c r="D117" t="n">
         <v>-1.13</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.34</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46766,7 +46784,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.6533333333333342</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.553333333333333</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -10651,7 +10653,9 @@
       <c r="E117" t="n">
         <v>-0.4233333333333311</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.006666666666664</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10660,7 +10664,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.28</v>
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15825,7 +15829,9 @@
       <c r="E117" t="n">
         <v>0.2033333333333331</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.843333333333334</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15834,7 +15840,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -20999,7 +21005,9 @@
       <c r="E117" t="n">
         <v>0.8929999999999989</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.727000000000001</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21008,7 +21016,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.15</v>
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -26079,7 +26087,9 @@
       <c r="E117" t="n">
         <v>0.5400000000000009</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.313333333333333</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26088,7 +26098,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.54</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -31253,7 +31263,9 @@
       <c r="E117" t="n">
         <v>0.3910000000000009</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.722333333333334</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31262,7 +31274,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.02</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36427,7 +36439,9 @@
       <c r="E117" t="n">
         <v>0.1060000000000034</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.7539999999999996</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36436,7 +36450,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.08</v>
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -41601,7 +41615,9 @@
       <c r="E117" t="n">
         <v>0.3376190476190487</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.702857142857143</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41610,7 +41626,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -46775,7 +46791,9 @@
       <c r="E117" t="n">
         <v>0.34</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.7</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46784,7 +46802,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-1.553333333333333</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.383333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10656,7 +10658,9 @@
       <c r="F117" t="n">
         <v>-2.006666666666664</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.1166666666666667</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10664,7 +10668,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.63</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15832,7 +15836,9 @@
       <c r="F117" t="n">
         <v>-1.843333333333334</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.8466666666666649</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15840,7 +15846,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.18</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -21008,7 +21014,9 @@
       <c r="F117" t="n">
         <v>-1.727000000000001</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.664</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21016,7 +21024,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.23</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -26090,7 +26098,9 @@
       <c r="F117" t="n">
         <v>-1.313333333333333</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.496666666666668</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26098,7 +26108,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.7</v>
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -31266,7 +31276,9 @@
       <c r="F117" t="n">
         <v>-2.722333333333334</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.151</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31274,7 +31286,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -36442,7 +36454,9 @@
       <c r="F117" t="n">
         <v>-0.7539999999999996</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>2.346</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36450,7 +36464,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.21</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -41618,7 +41632,9 @@
       <c r="F117" t="n">
         <v>-1.702857142857143</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.286333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41626,7 +41642,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -46794,7 +46810,9 @@
       <c r="F117" t="n">
         <v>-1.7</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.29</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46802,7 +46820,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.383333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.2466666666666644</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -10661,14 +10663,16 @@
       <c r="G117" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.3533333333333326</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.5</v>
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -15839,14 +15843,16 @@
       <c r="G117" t="n">
         <v>0.8466666666666649</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.9366666666666683</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -21017,14 +21023,16 @@
       <c r="G117" t="n">
         <v>1.664</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.243999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -26101,14 +26109,16 @@
       <c r="G117" t="n">
         <v>1.496666666666668</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.073333333333333</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.33</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -31279,14 +31289,16 @@
       <c r="G117" t="n">
         <v>1.151</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.207666666666666</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.27</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -36457,14 +36469,16 @@
       <c r="G117" t="n">
         <v>2.346</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>2.476</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -41635,14 +41649,16 @@
       <c r="G117" t="n">
         <v>1.286333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.076809523809523</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -46813,14 +46829,16 @@
       <c r="G117" t="n">
         <v>1.29</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.08</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMin_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMin_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.2466666666666644</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.2666666666666639</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -10666,13 +10667,15 @@
       <c r="H117" t="n">
         <v>0.3533333333333326</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6900000000000004</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.38</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -15846,13 +15849,15 @@
       <c r="H117" t="n">
         <v>0.9366666666666683</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.103333333333333</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -21026,13 +21031,15 @@
       <c r="H117" t="n">
         <v>1.243999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.5573333333333332</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -26112,13 +26119,15 @@
       <c r="H117" t="n">
         <v>1.073333333333333</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.9766666666666666</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -31292,13 +31301,15 @@
       <c r="H117" t="n">
         <v>1.207666666666666</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.807666666666667</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -36472,13 +36483,15 @@
       <c r="H117" t="n">
         <v>2.476</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.3926666666666669</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -41652,13 +41665,15 @@
       <c r="H117" t="n">
         <v>1.076809523809523</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6849047619047616</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -46832,13 +46847,15 @@
       <c r="H117" t="n">
         <v>1.08</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.68</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>0.2666666666666639</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.150666666666664</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -10670,12 +10672,14 @@
       <c r="I117" t="n">
         <v>0.6900000000000004</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.580000000000001</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -15852,12 +15856,14 @@
       <c r="I117" t="n">
         <v>1.103333333333333</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5826666666666664</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21034,12 +21040,14 @@
       <c r="I117" t="n">
         <v>0.5573333333333332</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>-0.2259999999999991</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -26122,12 +26130,14 @@
       <c r="I117" t="n">
         <v>0.9766666666666666</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.09999999999999876</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -31304,12 +31314,14 @@
       <c r="I117" t="n">
         <v>0.807666666666667</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.2143333333333342</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36486,12 +36498,14 @@
       <c r="I117" t="n">
         <v>0.3926666666666669</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4913333333333334</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -41668,12 +41682,14 @@
       <c r="I117" t="n">
         <v>0.6849047619047616</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4132857142857141</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -46850,12 +46866,14 @@
       <c r="I117" t="n">
         <v>0.68</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.41</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>1.150666666666664</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.4253333333333345</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -10675,11 +10677,13 @@
       <c r="J117" t="n">
         <v>0.580000000000001</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8033333333333328</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -15859,11 +15863,13 @@
       <c r="J117" t="n">
         <v>0.5826666666666664</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9159999999999986</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -21043,11 +21049,13 @@
       <c r="J117" t="n">
         <v>-0.2259999999999991</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8506666666666653</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -26133,11 +26141,13 @@
       <c r="J117" t="n">
         <v>0.09999999999999876</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.6699999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -31317,11 +31327,13 @@
       <c r="J117" t="n">
         <v>0.2143333333333342</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7210000000000001</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -36501,11 +36513,13 @@
       <c r="J117" t="n">
         <v>0.4913333333333334</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9979999999999984</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -41685,11 +41699,13 @@
       <c r="J117" t="n">
         <v>0.4132857142857141</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7691904761904756</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -46869,11 +46885,13 @@
       <c r="J117" t="n">
         <v>0.41</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.77</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_unrounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>0.4253333333333327</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.008333333333335</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.211666666666662</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.2066666666666688</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10680,10 +10706,36 @@
       <c r="K117" t="n">
         <v>0.8033333333333319</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.519999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.619999999999999</v>
+      </c>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.676666666666666</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.68</v>
       </c>
     </row>
   </sheetData>
@@ -10697,7 +10749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15866,10 +15918,36 @@
       <c r="K117" t="n">
         <v>0.9159999999999986</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.546000000000001</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.482666666666667</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.256666666666664</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15883,7 +15961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21052,10 +21130,36 @@
       <c r="K117" t="n">
         <v>0.8506666666666653</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.728999999999999</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.05966666666666853</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -21069,7 +21173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26144,11 +26248,31 @@
       <c r="K117" t="n">
         <v>0.669999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.4866666666666681</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26161,7 +26285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31330,10 +31454,36 @@
       <c r="K117" t="n">
         <v>0.721000000000001</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.614333333333335</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.244333333333332</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.9423333333333339</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -31347,7 +31497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36516,10 +36666,36 @@
       <c r="K117" t="n">
         <v>0.9980000000000002</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.6880000000000006</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.647999999999998</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.04266666666666907</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -36533,7 +36709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41702,10 +41878,36 @@
       <c r="K117" t="n">
         <v>0.7691904761904755</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.165333333333334</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.489277777777776</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.6633333333333326</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -41719,7 +41921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46888,10 +47090,36 @@
       <c r="K117" t="n">
         <v>0.77</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.49</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
